--- a/Schéma relationnel de données.xlsx
+++ b/Schéma relationnel de données.xlsx
@@ -64,9 +64,6 @@
     <t>David</t>
   </si>
   <si>
-    <t>id( int(11)</t>
-  </si>
-  <si>
     <t>id (int(11) pmarity)</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>commentaires_id</t>
+  </si>
+  <si>
+    <t>id int Primary Kay NUT NULL UNIQUE AUTU Increment</t>
   </si>
 </sst>
 </file>
@@ -508,12 +508,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="66" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
@@ -522,19 +522,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -618,22 +618,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,13 +641,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7">
         <v>43881.377523148149</v>
@@ -661,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7">
         <v>43941.377523148149</v>
@@ -684,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7">
         <v>43910.377523148149</v>
@@ -704,10 +704,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>43941.377523148149</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7">
         <v>43941.377523148149</v>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7">
         <v>43941.377523148149</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -842,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Schéma relationnel de données.xlsx
+++ b/Schéma relationnel de données.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>email@email.fr</t>
   </si>
@@ -34,21 +31,6 @@
     <t>sdf/sdf547</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>lick</t>
-  </si>
-  <si>
-    <t>dislick</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>created_at (date de réation du commentaire 2020-04-20 09:03:38</t>
-  </si>
-  <si>
     <t>article de chevale</t>
   </si>
   <si>
@@ -64,45 +46,24 @@
     <t>David</t>
   </si>
   <si>
-    <t>id (int(11) pmarity)</t>
-  </si>
-  <si>
-    <t>create_at (date de création) datetime</t>
-  </si>
-  <si>
     <t>created_at (permet d'avoir la date de la création du commentaire et d'aurganiser les de plus resant ou ensien</t>
   </si>
   <si>
-    <t>email(varchar(40) NUT NULL</t>
-  </si>
-  <si>
     <t>password (varchar (50) NOT NULL</t>
   </si>
   <si>
-    <t>nom (varchar(30) NOT NULL</t>
-  </si>
-  <si>
     <t>text qui va ici</t>
   </si>
   <si>
     <t>title(titre de l'article) varchar(200)</t>
   </si>
   <si>
-    <t>content (contenue de l'article )text</t>
-  </si>
-  <si>
     <t>image varchar(255)</t>
   </si>
   <si>
     <t>NULL</t>
   </si>
   <si>
-    <t xml:space="preserve">user_id (du post) </t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>articl 'c'est geinal</t>
   </si>
   <si>
@@ -115,28 +76,90 @@
     <t>je suis impatient</t>
   </si>
   <si>
-    <t>artice_id</t>
-  </si>
-  <si>
     <t>articl_id est un clé étrangaire</t>
   </si>
   <si>
-    <t>isAdmin(bool)</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>users_id</t>
-  </si>
-  <si>
-    <t>commentaires_id</t>
-  </si>
-  <si>
-    <t>id int Primary Kay NUT NULL UNIQUE AUTU Increment</t>
+    <t>email (varchar(40) NUT NULL</t>
+  </si>
+  <si>
+    <t>nom (VARCHAR(30) NOT NULL</t>
+  </si>
+  <si>
+    <t>isAdmin TINYINT(1) NOT NULL</t>
+  </si>
+  <si>
+    <t>id   PRIMARY KEY (id) INT NOT NULL AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>content (contenue de l'article )     text    NOT NULL</t>
+  </si>
+  <si>
+    <t>create_at (date de création) DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>users_id    INT NULL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      PRIMARY KEY     INT UNSIGNED NOT NULL AUTO_INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <t>users_id  FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>content TEXT NOT NULL</t>
+  </si>
+  <si>
+    <t>created_at  DATETIME NOT NULL</t>
+  </si>
+  <si>
+    <t>users_id  INT NOT NULL</t>
+  </si>
+  <si>
+    <t>id   PRIMARY KEY   INT NOT NULL AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>articles_id   FOREIGN KEY     INT UNSIGNED NOT NULL</t>
+  </si>
+  <si>
+    <t>id    INT NOT NULL AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>licke_dislike   TINYINT(1) NULL</t>
+  </si>
+  <si>
+    <t>lick = 1</t>
+  </si>
+  <si>
+    <t>dislick = 2</t>
+  </si>
+  <si>
+    <t>users_id   FOREIGN KEY   INT NOT NULL</t>
+  </si>
+  <si>
+    <t>commentaires_id    FOREIGN KEY    INT NOT NULL</t>
+  </si>
+  <si>
+    <t>articles_id   FOREIGN KEY   INT UNSIGNED NOT NULL</t>
   </si>
 </sst>
 </file>
@@ -507,34 +530,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="68" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,16 +565,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
+      <c r="E2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -559,16 +582,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,16 +599,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -599,55 +622,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7">
         <v>43881.377523148149</v>
@@ -656,18 +682,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7">
         <v>43941.377523148149</v>
@@ -676,18 +702,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>43910.377523148149</v>
@@ -696,18 +722,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7">
         <v>43941.377523148149</v>
@@ -718,6 +744,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -726,48 +753,46 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7">
         <v>43941.377523148149</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -775,45 +800,40 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43941.377523148149</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7">
-        <v>43941.377523148149</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -822,38 +842,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -862,12 +888,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/Schéma relationnel de données.xlsx
+++ b/Schéma relationnel de données.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>email@email.fr</t>
   </si>
@@ -46,21 +46,9 @@
     <t>David</t>
   </si>
   <si>
-    <t>created_at (permet d'avoir la date de la création du commentaire et d'aurganiser les de plus resant ou ensien</t>
-  </si>
-  <si>
-    <t>password (varchar (50) NOT NULL</t>
-  </si>
-  <si>
     <t>text qui va ici</t>
   </si>
   <si>
-    <t>title(titre de l'article) varchar(200)</t>
-  </si>
-  <si>
-    <t>image varchar(255)</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -76,34 +64,314 @@
     <t>je suis impatient</t>
   </si>
   <si>
-    <t>articl_id est un clé étrangaire</t>
-  </si>
-  <si>
-    <t>email (varchar(40) NUT NULL</t>
-  </si>
-  <si>
-    <t>nom (VARCHAR(30) NOT NULL</t>
-  </si>
-  <si>
-    <t>isAdmin TINYINT(1) NOT NULL</t>
-  </si>
-  <si>
-    <t>id   PRIMARY KEY (id) INT NOT NULL AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>content (contenue de l'article )     text    NOT NULL</t>
-  </si>
-  <si>
-    <t>create_at (date de création) DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>users_id    INT NULL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>lick = 1</t>
+  </si>
+  <si>
+    <t>dislick = 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    (varchar(40)   NUT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">name   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (VARCHAR(30)   NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   PRIMARY KEY (id)    INT     NOT NULL     AUTO_INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">password   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (varchar (50)   NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isAdmin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    TINYINT(1)    NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">idimage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   VARCHAR(255)    NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      PRIMARY KEY     INT UNSIGNED NOT NULL AUTO_INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    varchar(200)     NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">content </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     text    NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">image   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varchar(255)   NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create_at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      DATETIME      NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">users_id_user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      FOREIGN KEY       INT      NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -119,54 +387,225 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">      PRIMARY KEY     INT UNSIGNED NOT NULL AUTO_INCREMENT</t>
-    </r>
-  </si>
-  <si>
-    <t>users_id  FOREIGN KEY</t>
-  </si>
-  <si>
-    <t>content TEXT NOT NULL</t>
-  </si>
-  <si>
-    <t>created_at  DATETIME NOT NULL</t>
-  </si>
-  <si>
-    <t>users_id  INT NOT NULL</t>
-  </si>
-  <si>
-    <t>id   PRIMARY KEY   INT NOT NULL AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>articles_id   FOREIGN KEY     INT UNSIGNED NOT NULL</t>
-  </si>
-  <si>
-    <t>id    INT NOT NULL AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>licke_dislike   TINYINT(1) NULL</t>
-  </si>
-  <si>
-    <t>lick = 1</t>
-  </si>
-  <si>
-    <t>dislick = 2</t>
-  </si>
-  <si>
-    <t>users_id   FOREIGN KEY   INT NOT NULL</t>
-  </si>
-  <si>
-    <t>commentaires_id    FOREIGN KEY    INT NOT NULL</t>
-  </si>
-  <si>
-    <t>articles_id   FOREIGN KEY   INT UNSIGNED NOT NULL</t>
+      <t xml:space="preserve">  PRIMARY KEY   INT NOT NULL AUTO_INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">content  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    TEXT NOT     NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">created_at   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   DATETIME     NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">articles_id_article    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   FOREIGN KEY     INT    NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">users_id_user    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        FOREIGN KEY         INT         NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   INT    NOT NULL     AUTO_INCREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>licke_dislike</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   TINYINT(1)    NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commentaires_id_comment</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      FOREIGN KEY      INT   NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">articles_id_article </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    FOREIGN KEY     INT  NULL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">users_id_user </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   FOREIGN KEY</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +625,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,39 +982,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" style="2" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -577,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -594,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -617,92 +1075,89 @@
     <hyperlink ref="C3:C4" r:id="rId2" display="email@email.fr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
         <v>43881.377523148149</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>43941.377523148149</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -710,19 +1165,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <v>43910.377523148149</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -730,16 +1185,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7">
         <v>43941.377523148149</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -753,33 +1205,33 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,12 +1239,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7">
         <v>43941.377523148149</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
@@ -801,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7">
         <v>43941.377523148149</v>
@@ -809,24 +1264,29 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
@@ -845,16 +1305,16 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -865,13 +1325,13 @@
         <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,12 +1339,9 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
     </row>
@@ -893,12 +1350,9 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>2</v>
       </c>
     </row>

--- a/Schéma relationnel de données.xlsx
+++ b/Schéma relationnel de données.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>email@email.fr</t>
   </si>
@@ -31,12 +31,6 @@
     <t>sdf/sdf547</t>
   </si>
   <si>
-    <t>article de chevale</t>
-  </si>
-  <si>
-    <t>article de chat</t>
-  </si>
-  <si>
     <t>Clement</t>
   </si>
   <si>
@@ -55,21 +49,12 @@
     <t>articl 'c'est geinal</t>
   </si>
   <si>
-    <t>Nouveau venu dans le serice commercal</t>
-  </si>
-  <si>
-    <t>Article team buiding</t>
-  </si>
-  <si>
     <t>je suis impatient</t>
   </si>
   <si>
     <t>lick = 1</t>
   </si>
   <si>
-    <t>dislick = 0</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -505,6 +490,12 @@
     </r>
   </si>
   <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>Wilfried                                    2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -525,32 +516,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   TINYINT(1)    NULL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commentaires_id_comment</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      FOREIGN KEY      INT   NULL</t>
-    </r>
+      <t xml:space="preserve">   TINYINT(1)    NOt NULL/Null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Article          serice commercal</t>
+  </si>
+  <si>
+    <t>Article                      team buiding</t>
+  </si>
+  <si>
+    <t>Article                      serice commercal</t>
+  </si>
+  <si>
+    <t>Article                      de chevale</t>
   </si>
   <si>
     <r>
@@ -573,7 +563,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    FOREIGN KEY     INT  NULL</t>
+      <t xml:space="preserve">    FOREIGN KEY     INT  NOT NULL</t>
     </r>
   </si>
   <si>
@@ -597,15 +587,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   FOREIGN KEY</t>
-    </r>
+      <t xml:space="preserve">   FOREIGN KEY  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  int ?   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+  </si>
+  <si>
+    <t>David                                    3</t>
+  </si>
+  <si>
+    <t>dislick = 1</t>
+  </si>
+  <si>
+    <t>Article           team buiding                             2</t>
+  </si>
+  <si>
+    <t>Clement                                   1</t>
+  </si>
+  <si>
+    <t>David                                          3</t>
+  </si>
+  <si>
+    <t>article            de chevale                                  3</t>
+  </si>
+  <si>
+    <t>Article          serice commercal                     1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +673,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -985,7 +1034,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,22 +1049,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1040,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1057,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1084,7 +1133,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,22 +1148,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1122,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7">
         <v>43881.377523148149</v>
@@ -1142,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7">
         <v>43941.377523148149</v>
@@ -1162,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>43910.377523148149</v>
@@ -1178,21 +1227,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43941.377523148149</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,7 +1241,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,19 +1255,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7">
         <v>43941.377523148149</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1256,29 +1292,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7">
-        <v>43941.377523148149</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>43942.377523148149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4">
+      <c r="A4" s="2">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43943.377523148149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
-      <c r="E5">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1302,58 +1346,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
